--- a/Design Input File.xlsx
+++ b/Design Input File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/joma1794_colorado_edu/Documents/Course Materials/ASEN 2804/ASEN 2804 Spring 24/Spring 24 Models/CurrentWorkingCopy_NoDynamics/ASEN2804_Student_Code_Template_12Jan24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/ghra1877_colorado_edu/Documents/Desktop/Spring 2024/2804/Boost-Glider/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{7EE61222-4046-4270-BC24-33C0747AF4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914F9020-7604-441C-B710-B779F610C9E0}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{7EE61222-4046-4270-BC24-33C0747AF4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C2C48C-181A-4422-993C-C797A82CF243}"/>
   <bookViews>
-    <workbookView xWindow="61695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="5" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="4800" yWindow="960" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>John Mah</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{723B0253-B966-4282-81E0-052F56D0CD3D}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A57722CF-62E0-428D-AB10-1D20AF12095C}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{83DC38A5-ED9C-4085-980D-E79A6D12A171}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EABE38B3-91FF-409E-8CD9-05929F01F2FE}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A837C1E9-6ED1-49B9-9CBF-9495DAA361DF}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{22E816BB-09B0-4F88-B18F-852CFA82290E}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{09BB683E-80D7-4EA2-8430-3C05FCDCC012}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{95B61A99-2283-4D76-B78E-56FF95A5A87B}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6FB2E224-E3F9-44AC-BDE7-DA4F4F94169C}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FDF4771C-27DD-4608-9A1E-FD0C2E70E409}">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B533DFA5-7359-499A-B80D-473144871A57}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{52B72F72-2123-4028-A4A6-37F51DC63EFC}">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{08BA00B3-A5E3-48A9-AA17-30ED8132D250}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{1A046D68-C6B9-46A5-9D8E-3CAB0356839E}">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{0BD3A066-2E97-45EB-A17C-D71B86F23875}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{78B669D2-F2E9-43F9-809F-646A2F550568}">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{6EA0CF1F-7B90-40EF-AA33-BCF5A55CF27A}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{592B4E44-1DB7-412F-9E69-36F6ADA3B4AF}">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{456E3E0C-0365-45FF-ACC2-4B541B6EE1BC}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{12175084-BBCB-4886-9816-ADFCCB46C7B2}">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A0963DDF-AB2E-4A12-A89F-9430E9B2211A}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4C1DC6C4-7894-4A66-B860-8E72C8F1BE7E}">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{11CB8D3E-4310-440D-9486-FF42EBD4A282}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{F2401731-6D7E-4E14-BD30-ABBA96BE220E}">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{1FE434B8-0041-48C2-B4DF-CF7B192E6A74}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2AD8696C-AE31-4192-BD8A-05D0591D0995}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{4CFEEBB9-482D-49F7-8807-A86A75A74308}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{FACA6089-2868-45AB-A68C-A4F232BA10B3}">
       <text>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0DEAC09F-4B78-4127-9A91-DC4B66C6575D}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{92B13426-3602-4727-BC2A-3E39CCD1AC15}">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{2ECC4682-3878-4C4E-BEB2-44A7724B663B}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F72C56CA-9F4D-4AE2-90E2-9B55F62C245D}">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{838F2DB2-7B32-466A-A864-C241EBF9BF2A}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{20F6D625-323B-49EC-9B8E-C2CE6E57C400}">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{DBA0FD8D-AFDC-4356-890D-950C11A34B9A}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{9968A1DA-016B-4DFA-9005-B03EE5FF32C5}">
       <text>
         <r>
           <rPr>
@@ -479,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{3582D852-5394-49B5-B87A-98011C76D1DD}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{9599C69C-FB7F-4074-8170-71BE37F5781E}">
       <text>
         <r>
           <rPr>
@@ -503,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{AE4BA6B8-A4E5-467B-83A5-0A6B368E6D7A}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{B3365BBC-02BA-4EB8-BE4F-57DAB2F018DF}">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{3C0D1424-56F5-4D8A-B23C-472AC177C5F0}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{976736FE-DF8F-41BD-A7F8-1A7533D0CCA7}">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{FAFC8431-6FC5-4F32-BD5F-86C9E7D37DF0}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{CB902C87-4942-4B34-B4AB-3BCF375AA93C}">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{313C5530-71D1-4C05-96CC-E51335254DA7}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{849FE932-D5B5-4A96-BE2F-44BEFA866EB1}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{BE2203DD-0070-431C-9BA8-A3A9EF64DAB8}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E2E4AD56-C7D3-49C1-9882-4BAE0B08B656}">
       <text>
         <r>
           <rPr>
@@ -623,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{3A4BCE38-25E0-4FBB-8EF4-E42EC6DD87AE}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{B441D15C-6792-49D8-960F-0830B6DD5E4B}">
       <text>
         <r>
           <rPr>
@@ -647,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{A1B72736-D148-4A19-B06F-890D74865CCD}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{C22332EE-C48E-4F55-8E56-45B1EA3BEC19}">
       <text>
         <r>
           <rPr>
@@ -671,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{587D44CC-95B9-43B8-AAE3-2FC7F727AFB2}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{3BA2AD5C-1630-4B6C-87CA-32E0FAAA2E8E}">
       <text>
         <r>
           <rPr>
@@ -695,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{7F963D7E-BA69-4228-892D-689D2DB23AFD}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{876C96EE-F1D3-4CBF-A274-F952C6B2B59B}">
       <text>
         <r>
           <rPr>
@@ -719,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{F902FF2A-2C56-4730-95BD-238F81879CA5}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{AB193FE5-1564-4CE2-9546-09E88078F28E}">
       <text>
         <r>
           <rPr>
@@ -743,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{4B352C50-06F8-46EB-ABC6-45FBAC01CA62}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{1697AB86-7B08-4EBD-B2B6-C5CF3690FABB}">
       <text>
         <r>
           <rPr>
@@ -767,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{C865D950-1747-4D8A-A753-685FD9AF9089}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{A5B779C7-82A8-4B9E-A330-A19A79A4F458}">
       <text>
         <r>
           <rPr>
@@ -791,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{47CBC688-D705-4820-AE3D-1C044C71AE7C}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{1A38F9B5-2E57-4FAD-A87A-36E226087318}">
       <text>
         <r>
           <rPr>
@@ -815,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{8070A0F0-B0D8-41AE-85FD-BBD5F1800206}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{A8D1E827-CB16-4A44-8728-3D27031E5C69}">
       <text>
         <r>
           <rPr>
@@ -839,7 +839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{4C2136E3-2294-4889-A979-99B8EBB36DB9}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{22918086-0C74-48BC-B656-C8EEC9D6E8D7}">
       <text>
         <r>
           <rPr>
@@ -863,7 +863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{86BF02EE-581B-4AEA-BF2A-A0AEDE197061}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{27850A33-5D3C-41BF-BAF1-D8C4107B5C0F}">
       <text>
         <r>
           <rPr>
@@ -888,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{9FA84AC1-8986-490C-95DB-DF15194D0940}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{C2B802A2-7B3C-4ED1-8813-D9835B261EA9}">
       <text>
         <r>
           <rPr>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{0967951B-563B-4921-865E-9BBB5B2944FA}">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{ED7CC757-0038-4013-AA4A-AC397722CB86}">
       <text>
         <r>
           <rPr>
@@ -936,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{77C37629-6D03-4601-AE99-2FC2FC01897F}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{8C6E229A-181C-45D7-AF82-E6026E56A69F}">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{0598D33E-E98E-4894-8AED-96D3F724BC24}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{F56E5D34-0A6E-4544-ABA4-030EBAC71B72}">
       <text>
         <r>
           <rPr>
@@ -984,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{5B740DAE-E4C2-491D-88F7-EA96B815F403}">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{E06C2B75-BAFE-4C25-A4A5-72A0290409B5}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{782421BB-D040-4174-9A9A-19BC02FC789A}">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{9EEAF1A0-4AAD-41A2-A917-30D08ED0DE68}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{B50214BC-3C47-40AD-9DD1-8DF3699883E4}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{9D9C995C-37A3-4BCD-A377-A2E5AA345A34}">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{73842A1D-885E-4F04-B4BE-F5939F17D3E8}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{EDF17C56-92AE-43AE-91F2-4908AD7F675F}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{5AE63272-FFF2-4A17-BD14-A195ED35FFD2}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{BB1F4F32-51E4-48F8-AE2C-7B72BF5F20B7}">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{FAC0C6AE-7FC7-4E5D-BE47-BD1939AC6B92}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{DC9E5CFD-D363-4F9F-ADF4-80AD3AEDC976}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{BB5DDDE7-A789-4BB8-B0C4-B8BC6BBF275F}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{435A1CBA-A088-41C7-9B11-BEF543887D2E}">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{58B8DB7E-68CF-4790-8EDD-647DFBD6035A}">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{CAB67AF8-D994-4646-BD24-F7991C6954CE}">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{5816794B-8C73-495C-B421-7F3455D87965}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{4579E6BA-3EB6-403C-8197-03C64E40BB96}">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{DD14F246-4652-4008-A2EC-48A331E3F7DD}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{D56FF8C8-95CB-4C8B-8162-42BF33C705DD}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{7CE5FB44-B8BC-4660-81C5-9F2CB3796B39}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{AF38E8AA-7ACD-4888-8968-7CE0EE4DF900}">
       <text>
         <r>
           <rPr>
@@ -1257,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{DDBEEEEB-6D14-45D7-AA92-51C1CF0F6D3F}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{E4C53BEF-C428-450D-AA0B-429B5DFFC4DE}">
       <text>
         <r>
           <rPr>
@@ -1993,7 +1993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2068,11 +2068,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2110,6 +2125,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2372,10 +2390,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2413,7 +2435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2519,7 +2541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2661,7 +2683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2675,16 +2697,16 @@
       <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>195</v>
       </c>
@@ -2698,7 +2720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -2713,7 +2735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>196</v>
       </c>
@@ -2727,7 +2749,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>196</v>
       </c>
@@ -2741,7 +2763,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>196</v>
       </c>
@@ -2755,7 +2777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>196</v>
       </c>
@@ -2769,7 +2791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>196</v>
       </c>
@@ -2783,7 +2805,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
@@ -2797,7 +2819,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -2811,7 +2833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -2825,7 +2847,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>196</v>
       </c>
@@ -2839,7 +2861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>196</v>
       </c>
@@ -2853,7 +2875,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>196</v>
       </c>
@@ -2867,7 +2889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>196</v>
       </c>
@@ -2881,7 +2903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>196</v>
       </c>
@@ -2895,7 +2917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>196</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>196</v>
       </c>
@@ -2923,7 +2945,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>196</v>
       </c>
@@ -2937,7 +2959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>196</v>
       </c>
@@ -2951,7 +2973,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>196</v>
       </c>
@@ -2965,7 +2987,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>196</v>
       </c>
@@ -2979,7 +3001,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
@@ -2993,7 +3015,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -3007,7 +3029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -3021,7 +3043,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
@@ -3035,7 +3057,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
@@ -3049,7 +3071,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>196</v>
       </c>
@@ -3063,7 +3085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>196</v>
       </c>
@@ -3077,7 +3099,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>196</v>
       </c>
@@ -3091,7 +3113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>196</v>
       </c>
@@ -3105,7 +3127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>196</v>
       </c>
@@ -3119,7 +3141,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>196</v>
       </c>
@@ -3133,7 +3155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>196</v>
       </c>
@@ -3147,7 +3169,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>196</v>
       </c>
@@ -3161,7 +3183,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>196</v>
       </c>
@@ -3175,7 +3197,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>196</v>
       </c>
@@ -3189,7 +3211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
@@ -3203,7 +3225,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>196</v>
       </c>
@@ -3217,7 +3239,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>196</v>
       </c>
@@ -3231,7 +3253,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>196</v>
       </c>
@@ -3245,7 +3267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
@@ -3259,7 +3281,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>196</v>
       </c>
@@ -3273,7 +3295,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>196</v>
       </c>
@@ -3287,7 +3309,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>196</v>
       </c>
@@ -3301,7 +3323,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>196</v>
       </c>
@@ -3315,7 +3337,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>196</v>
       </c>
@@ -3329,7 +3351,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +3365,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>196</v>
       </c>
@@ -3357,7 +3379,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>196</v>
       </c>
@@ -3371,7 +3393,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>196</v>
       </c>
@@ -3385,7 +3407,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3399,7 +3421,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>196</v>
       </c>
@@ -3413,7 +3435,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>197</v>
       </c>
@@ -3427,7 +3449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>197</v>
       </c>
@@ -3441,7 +3463,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>197</v>
       </c>
@@ -3455,7 +3477,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>197</v>
       </c>
@@ -3469,7 +3491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>197</v>
       </c>
@@ -3483,7 +3505,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>197</v>
       </c>
@@ -3497,7 +3519,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>197</v>
       </c>
@@ -3511,7 +3533,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>197</v>
       </c>
@@ -3525,7 +3547,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>197</v>
       </c>
@@ -3539,7 +3561,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>197</v>
       </c>
@@ -3553,7 +3575,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>197</v>
       </c>
@@ -3567,7 +3589,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>197</v>
       </c>
@@ -3581,7 +3603,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>197</v>
       </c>
@@ -3595,7 +3617,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -3609,7 +3631,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>197</v>
       </c>
@@ -3623,7 +3645,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>197</v>
       </c>
@@ -3637,7 +3659,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>197</v>
       </c>
@@ -3651,7 +3673,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>197</v>
       </c>
@@ -3679,7 +3701,7 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3690,22 +3712,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3860,17 +3882,167 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B2" s="16">
+        <v>1655</v>
+      </c>
+      <c r="C2" s="16">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="F2" s="16">
+        <v>9.75</v>
+      </c>
+      <c r="G2" s="16">
+        <v>2.0105999999999999E-2</v>
+      </c>
+      <c r="H2" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="16">
+        <v>4.8919999999999998E-2</v>
+      </c>
+      <c r="J2" s="16">
+        <v>1</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="M2" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="N2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="16">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="R2" s="16">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S2" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="T2" s="16">
+        <v>0.14624999999999999</v>
+      </c>
+      <c r="U2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V2" s="16">
+        <v>0</v>
+      </c>
+      <c r="W2" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="X2" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>1.3635999999999999</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>800</v>
+      </c>
+      <c r="AV2" s="16">
+        <v>45</v>
+      </c>
+      <c r="AW2" s="16">
+        <v>90</v>
+      </c>
+      <c r="AX2" s="16">
+        <v>270</v>
+      </c>
+      <c r="AY2" s="16">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -3889,18 +4061,18 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>Input!A2</f>
         <v>Tempest Model</v>
@@ -4231,13 +4403,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>Input!A3</f>
         <v>Student Design 1</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f>Input!A4</f>
         <v>Student Design 2</v>
@@ -4257,9 +4429,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -4270,7 +4442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>-5</v>
       </c>
@@ -4281,7 +4453,7 @@
         <v>4.4250999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>-4</v>
       </c>
@@ -4292,7 +4464,7 @@
         <v>3.3783000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>-3</v>
       </c>
@@ -4303,7 +4475,7 @@
         <v>2.8627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>-2</v>
       </c>
@@ -4314,7 +4486,7 @@
         <v>2.5864000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -4325,7 +4497,7 @@
         <v>2.4643000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -4336,7 +4508,7 @@
         <v>2.5099E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4347,7 +4519,7 @@
         <v>2.5635000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4358,7 +4530,7 @@
         <v>2.7660000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -4369,7 +4541,7 @@
         <v>3.0676999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -4380,7 +4552,7 @@
         <v>3.4854999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -4391,7 +4563,7 @@
         <v>4.0403000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -4402,7 +4574,7 @@
         <v>4.759E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -4413,7 +4585,7 @@
         <v>5.7107999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -4424,7 +4596,7 @@
         <v>7.0132E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -4435,7 +4607,7 @@
         <v>9.0921000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -4446,7 +4618,7 @@
         <v>0.11193</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -4457,7 +4629,7 @@
         <v>0.13253999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -4468,7 +4640,7 @@
         <v>0.15645000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E21" s="5"/>
       <c r="F21" s="15"/>
     </row>
@@ -4482,20 +4654,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC58F1BF-02F4-4EE1-B48A-F04EDABB7E7E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
@@ -4512,7 +4684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>20.8</v>
       </c>
@@ -4529,7 +4701,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>108</v>
       </c>

--- a/Design Input File.xlsx
+++ b/Design Input File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/ghra1877_colorado_edu/Documents/Desktop/Spring 2024/2804/Boost-Glider/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajab\OneDrive - UCB-O365\Desktop\Spring 2024\2804\Boost-Glider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{7EE61222-4046-4270-BC24-33C0747AF4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C2C48C-181A-4422-993C-C797A82CF243}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BF3A0-47FB-414F-B3B7-DB7875CA10EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="960" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="202">
   <si>
     <t>Length_f</t>
   </si>
@@ -1907,10 +1907,13 @@
     <t>Tempest Model</t>
   </si>
   <si>
-    <t>Student Design 1</t>
-  </si>
-  <si>
-    <t>Student Design 2</t>
+    <t>Different Wind 1</t>
+  </si>
+  <si>
+    <t>Different Wind 2</t>
+  </si>
+  <si>
+    <t>Different Wind 3</t>
   </si>
 </sst>
 </file>
@@ -2390,10 +2393,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3710,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4037,17 +4036,473 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="B3" s="16">
+        <v>1655</v>
+      </c>
+      <c r="C3" s="16">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="16">
+        <v>9.75</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2.0105999999999999E-2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="16">
+        <v>4.8919999999999998E-2</v>
+      </c>
+      <c r="J3" s="16">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="M3" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0.14624999999999999</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="X3" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>1.3635999999999999</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>800</v>
+      </c>
+      <c r="AV3" s="16">
+        <v>45</v>
+      </c>
+      <c r="AW3" s="16">
+        <v>90</v>
+      </c>
+      <c r="AX3" s="16">
+        <v>90</v>
+      </c>
+      <c r="AY3" s="16">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>200</v>
       </c>
+      <c r="B4" s="16">
+        <v>1655</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="16">
+        <v>9.75</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2.0105999999999999E-2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="16">
+        <v>4.8919999999999998E-2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="M4" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="R4" s="16">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0.14624999999999999</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="16">
+        <v>0</v>
+      </c>
+      <c r="W4" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="X4" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>1.3635999999999999</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="16">
+        <v>800</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>45</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>90</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>180</v>
+      </c>
+      <c r="AY4" s="16">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1655</v>
+      </c>
+      <c r="C5" s="16">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="16">
+        <v>9.75</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2.0105999999999999E-2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="16">
+        <v>4.8919999999999998E-2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="M5" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0.14624999999999999</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0.1173</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>1.3635999999999999</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>800</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>45</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>90</v>
+      </c>
+      <c r="AX5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="16">
+        <v>6.25</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -4055,10 +4510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4404,15 +4859,501 @@
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="str">
-        <f>Input!A3</f>
-        <v>Student Design 1</v>
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E3">
+        <v>-0.41660000000000003</v>
+      </c>
+      <c r="F3">
+        <v>-0.27339999999999998</v>
+      </c>
+      <c r="G3">
+        <v>-0.125</v>
+      </c>
+      <c r="H3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I3">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.8165</v>
+      </c>
+      <c r="P3">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>0.9889</v>
+      </c>
+      <c r="R3">
+        <v>1.0582</v>
+      </c>
+      <c r="S3">
+        <v>1.1042000000000001</v>
+      </c>
+      <c r="T3">
+        <v>1.1555</v>
+      </c>
+      <c r="U3">
+        <v>1.1303000000000001</v>
+      </c>
+      <c r="V3">
+        <v>1.097</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W5" si="2">MAX(E3:V3)</f>
+        <v>1.1555</v>
+      </c>
+      <c r="X3">
+        <v>4.0489999999999998E-2</v>
+      </c>
+      <c r="Y3">
+        <v>0.02</v>
+      </c>
+      <c r="Z3">
+        <v>1.439E-2</v>
+      </c>
+      <c r="AA3">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="AB3">
+        <v>9.7599999999999996E-3</v>
+      </c>
+      <c r="AC3">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="AD3">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="AE3">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="AF3">
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="AG3">
+        <v>1.01E-2</v>
+      </c>
+      <c r="AH3">
+        <v>1.133E-2</v>
+      </c>
+      <c r="AI3">
+        <v>1.3140000000000001E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>1.5730000000000001E-2</v>
+      </c>
+      <c r="AK3">
+        <v>2.0119999999999999E-2</v>
+      </c>
+      <c r="AL3">
+        <v>2.7230000000000001E-2</v>
+      </c>
+      <c r="AM3">
+        <v>3.6409999999999998E-2</v>
+      </c>
+      <c r="AN3">
+        <v>5.1929999999999997E-2</v>
+      </c>
+      <c r="AO3">
+        <v>6.2429999999999999E-2</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP5" si="3">MIN(X3:AO3)</f>
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR3">
+        <v>0.08</v>
+      </c>
+      <c r="AS3">
+        <v>0.3</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX3">
+        <v>0.08</v>
+      </c>
+      <c r="AY3">
+        <v>0.3</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="str">
-        <f>Input!A4</f>
-        <v>Student Design 2</v>
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.41660000000000003</v>
+      </c>
+      <c r="F4">
+        <v>-0.27339999999999998</v>
+      </c>
+      <c r="G4">
+        <v>-0.125</v>
+      </c>
+      <c r="H4">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I4">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.8165</v>
+      </c>
+      <c r="P4">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="Q4">
+        <v>0.9889</v>
+      </c>
+      <c r="R4">
+        <v>1.0582</v>
+      </c>
+      <c r="S4">
+        <v>1.1042000000000001</v>
+      </c>
+      <c r="T4">
+        <v>1.1555</v>
+      </c>
+      <c r="U4">
+        <v>1.1303000000000001</v>
+      </c>
+      <c r="V4">
+        <v>1.097</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>1.1555</v>
+      </c>
+      <c r="X4">
+        <v>4.0489999999999998E-2</v>
+      </c>
+      <c r="Y4">
+        <v>0.02</v>
+      </c>
+      <c r="Z4">
+        <v>1.439E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="AB4">
+        <v>9.7599999999999996E-3</v>
+      </c>
+      <c r="AC4">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="AD4">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="AE4">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="AF4">
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.01E-2</v>
+      </c>
+      <c r="AH4">
+        <v>1.133E-2</v>
+      </c>
+      <c r="AI4">
+        <v>1.3140000000000001E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>1.5730000000000001E-2</v>
+      </c>
+      <c r="AK4">
+        <v>2.0119999999999999E-2</v>
+      </c>
+      <c r="AL4">
+        <v>2.7230000000000001E-2</v>
+      </c>
+      <c r="AM4">
+        <v>3.6409999999999998E-2</v>
+      </c>
+      <c r="AN4">
+        <v>5.1929999999999997E-2</v>
+      </c>
+      <c r="AO4">
+        <v>6.2429999999999999E-2</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="3"/>
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR4">
+        <v>0.08</v>
+      </c>
+      <c r="AS4">
+        <v>0.3</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX4">
+        <v>0.08</v>
+      </c>
+      <c r="AY4">
+        <v>0.3</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-0.41660000000000003</v>
+      </c>
+      <c r="F5">
+        <v>-0.27339999999999998</v>
+      </c>
+      <c r="G5">
+        <v>-0.125</v>
+      </c>
+      <c r="H5">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I5">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="N5">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.8165</v>
+      </c>
+      <c r="P5">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="Q5">
+        <v>0.9889</v>
+      </c>
+      <c r="R5">
+        <v>1.0582</v>
+      </c>
+      <c r="S5">
+        <v>1.1042000000000001</v>
+      </c>
+      <c r="T5">
+        <v>1.1555</v>
+      </c>
+      <c r="U5">
+        <v>1.1303000000000001</v>
+      </c>
+      <c r="V5">
+        <v>1.097</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>1.1555</v>
+      </c>
+      <c r="X5">
+        <v>4.0489999999999998E-2</v>
+      </c>
+      <c r="Y5">
+        <v>0.02</v>
+      </c>
+      <c r="Z5">
+        <v>1.439E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="AB5">
+        <v>9.7599999999999996E-3</v>
+      </c>
+      <c r="AC5">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="AD5">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="AE5">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="AF5">
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="AG5">
+        <v>1.01E-2</v>
+      </c>
+      <c r="AH5">
+        <v>1.133E-2</v>
+      </c>
+      <c r="AI5">
+        <v>1.3140000000000001E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.5730000000000001E-2</v>
+      </c>
+      <c r="AK5">
+        <v>2.0119999999999999E-2</v>
+      </c>
+      <c r="AL5">
+        <v>2.7230000000000001E-2</v>
+      </c>
+      <c r="AM5">
+        <v>3.6409999999999998E-2</v>
+      </c>
+      <c r="AN5">
+        <v>5.1929999999999997E-2</v>
+      </c>
+      <c r="AO5">
+        <v>6.2429999999999999E-2</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="3"/>
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR5">
+        <v>0.08</v>
+      </c>
+      <c r="AS5">
+        <v>0.3</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX5">
+        <v>0.08</v>
+      </c>
+      <c r="AY5">
+        <v>0.3</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +5366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B37039A-DE36-48A7-B09A-20ABDB8A0C39}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/Design Input File.xlsx
+++ b/Design Input File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajab\OneDrive - UCB-O365\Desktop\Spring 2024\2804\Boost-Glider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/ghra1877_colorado_edu/Documents/Desktop/Spring 2024/2804/Boost-Glider/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BF3A0-47FB-414F-B3B7-DB7875CA10EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{855BF3A0-47FB-414F-B3B7-DB7875CA10EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C3752F-B005-4503-931C-FB1F3248B026}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="201">
   <si>
     <t>Length_f</t>
   </si>
@@ -1911,9 +1911,6 @@
   </si>
   <si>
     <t>Different Wind 2</t>
-  </si>
-  <si>
-    <t>Different Wind 3</t>
   </si>
 </sst>
 </file>
@@ -3709,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4185,7 +4182,7 @@
         <v>90</v>
       </c>
       <c r="AX3" s="16">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AY3" s="16">
         <v>6.25</v>
@@ -4340,164 +4337,9 @@
         <v>90</v>
       </c>
       <c r="AX4" s="16">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="16">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1655</v>
-      </c>
-      <c r="C5" s="16">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1.56</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="F5" s="16">
-        <v>9.75</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2.0105999999999999E-2</v>
-      </c>
-      <c r="H5" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="16">
-        <v>4.8919999999999998E-2</v>
-      </c>
-      <c r="J5" s="16">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.63</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0.63</v>
-      </c>
-      <c r="M5" s="16">
-        <v>16.5</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="R5" s="16">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="S5" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0.14624999999999999</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="V5" s="16">
-        <v>0</v>
-      </c>
-      <c r="W5" s="16">
-        <v>0.125</v>
-      </c>
-      <c r="X5" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="16">
-        <v>0.1173</v>
-      </c>
-      <c r="AG5" s="16">
-        <v>0.1173</v>
-      </c>
-      <c r="AH5" s="16">
-        <v>1.3635999999999999</v>
-      </c>
-      <c r="AI5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="16">
-        <v>15</v>
-      </c>
-      <c r="AK5" s="16">
-        <v>0.26</v>
-      </c>
-      <c r="AL5" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AM5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="16">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="16">
-        <v>800</v>
-      </c>
-      <c r="AV5" s="16">
-        <v>45</v>
-      </c>
-      <c r="AW5" s="16">
-        <v>90</v>
-      </c>
-      <c r="AX5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="16">
         <v>6.25</v>
       </c>
     </row>
@@ -4510,10 +4352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4926,7 +4768,7 @@
         <v>1.097</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W5" si="2">MAX(E3:V3)</f>
+        <f>MAX(E3:V3)</f>
         <v>1.1555</v>
       </c>
       <c r="X3">
@@ -4984,7 +4826,7 @@
         <v>6.2429999999999999E-2</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AP5" si="3">MIN(X3:AO3)</f>
+        <f>MIN(X3:AO3)</f>
         <v>8.9800000000000001E-3</v>
       </c>
       <c r="AQ3" t="s">
@@ -5092,7 +4934,7 @@
         <v>1.097</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f>MAX(E4:V4)</f>
         <v>1.1555</v>
       </c>
       <c r="X4">
@@ -5150,7 +4992,7 @@
         <v>6.2429999999999999E-2</v>
       </c>
       <c r="AP4">
-        <f t="shared" si="3"/>
+        <f>MIN(X4:AO4)</f>
         <v>8.9800000000000001E-3</v>
       </c>
       <c r="AQ4" t="s">
@@ -5187,172 +5029,6 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="E5">
-        <v>-0.41660000000000003</v>
-      </c>
-      <c r="F5">
-        <v>-0.27339999999999998</v>
-      </c>
-      <c r="G5">
-        <v>-0.125</v>
-      </c>
-      <c r="H5">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="I5">
-        <v>0.21360000000000001</v>
-      </c>
-      <c r="J5">
-        <v>0.33119999999999999</v>
-      </c>
-      <c r="K5">
-        <v>0.42630000000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="M5">
-        <v>0.62360000000000004</v>
-      </c>
-      <c r="N5">
-        <v>0.72170000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.8165</v>
-      </c>
-      <c r="P5">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="Q5">
-        <v>0.9889</v>
-      </c>
-      <c r="R5">
-        <v>1.0582</v>
-      </c>
-      <c r="S5">
-        <v>1.1042000000000001</v>
-      </c>
-      <c r="T5">
-        <v>1.1555</v>
-      </c>
-      <c r="U5">
-        <v>1.1303000000000001</v>
-      </c>
-      <c r="V5">
-        <v>1.097</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="2"/>
-        <v>1.1555</v>
-      </c>
-      <c r="X5">
-        <v>4.0489999999999998E-2</v>
-      </c>
-      <c r="Y5">
-        <v>0.02</v>
-      </c>
-      <c r="Z5">
-        <v>1.439E-2</v>
-      </c>
-      <c r="AA5">
-        <v>1.0540000000000001E-2</v>
-      </c>
-      <c r="AB5">
-        <v>9.7599999999999996E-3</v>
-      </c>
-      <c r="AC5">
-        <v>9.3299999999999998E-3</v>
-      </c>
-      <c r="AD5">
-        <v>9.0600000000000003E-3</v>
-      </c>
-      <c r="AE5">
-        <v>8.9800000000000001E-3</v>
-      </c>
-      <c r="AF5">
-        <v>9.2800000000000001E-3</v>
-      </c>
-      <c r="AG5">
-        <v>1.01E-2</v>
-      </c>
-      <c r="AH5">
-        <v>1.133E-2</v>
-      </c>
-      <c r="AI5">
-        <v>1.3140000000000001E-2</v>
-      </c>
-      <c r="AJ5">
-        <v>1.5730000000000001E-2</v>
-      </c>
-      <c r="AK5">
-        <v>2.0119999999999999E-2</v>
-      </c>
-      <c r="AL5">
-        <v>2.7230000000000001E-2</v>
-      </c>
-      <c r="AM5">
-        <v>3.6409999999999998E-2</v>
-      </c>
-      <c r="AN5">
-        <v>5.1929999999999997E-2</v>
-      </c>
-      <c r="AO5">
-        <v>6.2429999999999999E-2</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="3"/>
-        <v>8.9800000000000001E-3</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR5">
-        <v>0.08</v>
-      </c>
-      <c r="AS5">
-        <v>0.3</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX5">
-        <v>0.08</v>
-      </c>
-      <c r="AY5">
-        <v>0.3</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
         <v>0</v>
       </c>
     </row>
